--- a/doc/Web平台开发计划.xlsx
+++ b/doc/Web平台开发计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="175">
   <si>
     <t>页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -139,11 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.需评估是否支持按区设置背景色，以及只显示单个城市地图
-2. 颜色代表的含义?车流量?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>今日实时过车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,10 +164,6 @@
   </si>
   <si>
     <t>获取区域车辆数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分比如何计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -399,14 +390,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地图和列表是否有对应关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否需要处理地图放大和缩小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>重点监管</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1073,7 +1056,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. </t>
+      <t>1. excel</t>
     </r>
     <r>
       <rPr>
@@ -1083,14 +1066,11 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>车辆数百分比含义？</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1. excel</t>
-    </r>
+      <t>格式是否有要求：暂无，简单设计即可</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1099,11 +1079,18 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>格式是否有要求：暂无，简单设计即可</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+      <t>建议</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TAB</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1112,7 +1099,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>当月</t>
+      <t>切换，不建议滚动：</t>
     </r>
     <r>
       <rPr>
@@ -1122,7 +1109,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>1</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1132,61 +1119,12 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>日，本月违章如何统计</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>建议</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>TAB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>切换，不建议滚动：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>设计调整</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否需要处理地图放大和缩小: 简单处理，无须合并点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1322,7 +1260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1366,20 +1304,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1390,22 +1319,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1705,7 +1646,7 @@
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46:K50"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1740,7 +1681,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -1752,7 +1693,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -1762,10 +1703,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="27">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -1777,27 +1718,29 @@
       <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="H2" s="23">
+      <c r="F2" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="21">
         <v>44156</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="21">
         <v>44161</v>
       </c>
-      <c r="J2" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="K2" s="20"/>
+      <c r="J2" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="23">
+        <v>0.8</v>
+      </c>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="27">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
@@ -1807,19 +1750,19 @@
       <c r="E3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="F3" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" ht="27">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1829,19 +1772,19 @@
       <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="F4" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" ht="40.5">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
@@ -1851,19 +1794,19 @@
       <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="F5" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:12" ht="40.5">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+    <row r="6" spans="1:12">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
@@ -1871,1697 +1814,1626 @@
         <v>22</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="13" t="s">
+      <c r="F6" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" ht="40.5">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="40.5">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" ht="27">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="14" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="27">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
+      <c r="F9" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
       <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="13"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>34</v>
+      <c r="B11" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="H11" s="23">
+      <c r="F11" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="21">
         <v>44162</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="21">
         <v>44164</v>
       </c>
-      <c r="J11" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="K11" s="24"/>
+      <c r="J11" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" s="23">
+        <v>0.5</v>
+      </c>
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="H15" s="23">
+        <v>42</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="21">
         <v>44165</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="21">
         <v>44168</v>
       </c>
-      <c r="J15" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="K15" s="20"/>
+      <c r="J15" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" s="23">
+        <v>0.1</v>
+      </c>
       <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:12" ht="27">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
       <c r="C16" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+        <v>44</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
       <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" ht="27">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" ht="67.5">
+      <c r="A18" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" ht="67.5">
-      <c r="A18" s="18" t="s">
+      <c r="C18" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="E18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="21">
+        <v>44169</v>
+      </c>
+      <c r="I18" s="21">
+        <v>44174</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K18" s="23">
+        <v>0.2</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="1:12" ht="27.75">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="H18" s="23">
-        <v>44169</v>
-      </c>
-      <c r="I18" s="23">
-        <v>44174</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="K18" s="24">
-        <v>0.2</v>
-      </c>
-      <c r="L18" s="14" t="s">
+      <c r="E21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="1:12" ht="27.75">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="H22" s="23">
+        <v>56</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="H22" s="21">
         <v>44175</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="21">
         <v>44178</v>
       </c>
-      <c r="J22" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="K22" s="20"/>
+      <c r="J22" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" s="17"/>
       <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
+        <v>58</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="11"/>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
+    <row r="24" spans="1:12" ht="27">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
+        <v>61</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
       <c r="L24" s="13" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" spans="1:12" ht="27">
+      <c r="A26" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="27">
-      <c r="A26" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>68</v>
-      </c>
       <c r="C26" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F26" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="H26" s="23">
+        <v>65</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="21">
         <v>44158</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="21">
         <v>44161</v>
       </c>
-      <c r="J26" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="K26" s="20"/>
+      <c r="J26" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" s="23">
+        <v>0.8</v>
+      </c>
       <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
+        <v>67</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
       <c r="L27" s="11"/>
     </row>
     <row r="28" spans="1:12" ht="27">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
+        <v>69</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
       <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="18"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H29" s="28">
+      <c r="H29" s="16">
         <v>44162</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="16">
         <v>44163</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="K29" s="10"/>
+        <v>169</v>
+      </c>
+      <c r="K29" s="29">
+        <v>0.8</v>
+      </c>
       <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="18"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="12"/>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="G30" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H30" s="28">
+      <c r="H30" s="16">
         <v>44164</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="16">
         <v>44166</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="K30" s="10"/>
+        <v>169</v>
+      </c>
+      <c r="K30" s="29">
+        <v>0.8</v>
+      </c>
       <c r="L30" s="11"/>
     </row>
     <row r="31" spans="1:12" ht="27">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18" t="s">
-        <v>76</v>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25" t="s">
+        <v>72</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="H31" s="23">
+        <v>73</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" s="21">
         <v>44167</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="21">
         <v>44171</v>
       </c>
-      <c r="J31" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="K31" s="20"/>
+      <c r="J31" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K31" s="17"/>
       <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
+        <v>76</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
       <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="27">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
       <c r="L33" s="13"/>
     </row>
     <row r="34" spans="1:12" ht="40.5">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
+        <v>80</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
       <c r="L34" s="11"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
+        <v>81</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
       <c r="L35" s="11"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
+        <v>83</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
       <c r="L36" s="11"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
+        <v>85</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
       <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18" t="s">
-        <v>90</v>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="H38" s="23">
+        <v>88</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="H38" s="21">
         <v>44172</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="21">
         <v>44177</v>
       </c>
-      <c r="J38" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="K38" s="20"/>
+      <c r="J38" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="K38" s="17"/>
       <c r="L38" s="11"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
       <c r="L39" s="11"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="21"/>
+        <v>91</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
       <c r="L40" s="11"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F41" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="21"/>
+        <v>92</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
       <c r="L41" s="11"/>
     </row>
     <row r="42" spans="1:12" ht="27">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D42" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
+        <v>94</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
       <c r="L42" s="11"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>100</v>
+      <c r="A43" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F43" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="G43" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="H43" s="23">
+      <c r="H43" s="21">
         <v>44192</v>
       </c>
-      <c r="I43" s="23">
+      <c r="I43" s="21">
         <v>44194</v>
       </c>
-      <c r="J43" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="K43" s="20"/>
+      <c r="J43" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K43" s="17"/>
       <c r="L43" s="11"/>
     </row>
     <row r="44" spans="1:12" ht="40.5">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
+        <v>151</v>
+      </c>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
       <c r="L44" s="11"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="18"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="G45" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="H45" s="28">
+      <c r="H45" s="16">
         <v>44195</v>
       </c>
-      <c r="I45" s="28">
+      <c r="I45" s="16">
         <v>44198</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="11"/>
     </row>
     <row r="46" spans="1:12" ht="27">
-      <c r="A46" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B46" s="18" t="s">
+      <c r="A46" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="25" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G46" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="H46" s="21">
+        <v>44179</v>
+      </c>
+      <c r="I46" s="21">
+        <v>44184</v>
+      </c>
+      <c r="J46" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="H46" s="23">
-        <v>44179</v>
-      </c>
-      <c r="I46" s="23">
-        <v>44184</v>
-      </c>
-      <c r="J46" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="K46" s="20"/>
+      <c r="K46" s="17"/>
       <c r="L46" s="11"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="21"/>
+        <v>152</v>
+      </c>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
       <c r="L47" s="11"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
+        <v>152</v>
+      </c>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
       <c r="L48" s="11"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
+        <v>152</v>
+      </c>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
       <c r="L49" s="11"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
+        <v>152</v>
+      </c>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
       <c r="L50" s="11"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18" t="s">
-        <v>114</v>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F51" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G51" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="G51" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="H51" s="23">
+      <c r="H51" s="21">
         <v>44185</v>
       </c>
-      <c r="I51" s="23">
+      <c r="I51" s="21">
         <v>44190</v>
       </c>
-      <c r="J51" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="K51" s="20"/>
+      <c r="J51" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K51" s="17"/>
       <c r="L51" s="11"/>
     </row>
     <row r="52" spans="1:12" ht="27">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="11"/>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="11"/>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="11"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="11"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
+        <v>152</v>
+      </c>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
       <c r="L54" s="11"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="21"/>
+        <v>152</v>
+      </c>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
       <c r="L55" s="11"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
       <c r="C56" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D56" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
+        <v>152</v>
+      </c>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
       <c r="L56" s="11"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
       <c r="C57" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="21"/>
+        <v>152</v>
+      </c>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
       <c r="L57" s="11"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
       <c r="C58" s="10" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
+        <v>152</v>
+      </c>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
       <c r="L58" s="11"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18" t="s">
-        <v>130</v>
+      <c r="A59" s="25"/>
+      <c r="B59" s="25" t="s">
+        <v>126</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D59" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="H59" s="23">
+        <v>152</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="H59" s="21">
         <v>44191</v>
       </c>
-      <c r="I59" s="23">
+      <c r="I59" s="21">
         <v>44192</v>
       </c>
-      <c r="J59" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="K59" s="20"/>
+      <c r="J59" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K59" s="17"/>
       <c r="L59" s="11"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
       <c r="C60" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
+        <v>152</v>
+      </c>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
       <c r="L60" s="11"/>
     </row>
     <row r="61" spans="1:12" ht="27">
-      <c r="A61" s="18"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D61" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="H61" s="28">
+        <v>168</v>
+      </c>
+      <c r="H61" s="16">
         <v>44185</v>
       </c>
-      <c r="I61" s="28">
+      <c r="I61" s="16">
         <v>44185</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K61" s="10"/>
       <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18" t="s">
-        <v>135</v>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25" t="s">
+        <v>131</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="H62" s="21">
+        <v>44186</v>
+      </c>
+      <c r="I62" s="21">
+        <v>44191</v>
+      </c>
+      <c r="J62" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="K62" s="17"/>
+      <c r="L62" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="27.75">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="F62" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G62" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="H62" s="23">
-        <v>44186</v>
-      </c>
-      <c r="I62" s="23">
-        <v>44191</v>
-      </c>
-      <c r="J62" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="K62" s="20"/>
-      <c r="L62" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="27.75">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="E63" s="9" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="16"/>
+        <v>152</v>
+      </c>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="27"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="16"/>
+        <v>152</v>
+      </c>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="27"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E65" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="27"/>
+    </row>
+    <row r="66" spans="1:12" ht="27.75">
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="G66" s="19"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="28"/>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B67" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="F65" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="16"/>
-    </row>
-    <row r="66" spans="1:12" ht="27.75">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E66" s="9" t="s">
+      <c r="C67" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="F66" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="17"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="F67" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H67" s="28">
+        <v>157</v>
+      </c>
+      <c r="H67" s="16">
         <v>44178</v>
       </c>
-      <c r="I67" s="28">
+      <c r="I67" s="16">
         <v>44178</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K67" s="10"/>
       <c r="L67" s="11"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="18"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H68" s="28">
+        <v>157</v>
+      </c>
+      <c r="H68" s="16">
         <v>44179</v>
       </c>
-      <c r="I68" s="28">
+      <c r="I68" s="16">
         <v>44180</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K68" s="10"/>
       <c r="L68" s="11"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="18"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H69" s="28">
+        <v>157</v>
+      </c>
+      <c r="H69" s="16">
         <v>44181</v>
       </c>
-      <c r="I69" s="28">
+      <c r="I69" s="16">
         <v>44182</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K69" s="10"/>
       <c r="L69" s="11"/>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F70" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>156</v>
-      </c>
       <c r="G70" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H70" s="28">
+        <v>157</v>
+      </c>
+      <c r="H70" s="16">
         <v>44183</v>
       </c>
-      <c r="I70" s="28">
+      <c r="I70" s="16">
         <v>44184</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K70" s="10"/>
       <c r="L70" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="G51:G58"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="J2:J10"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J31:J37"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J46:J50"/>
-    <mergeCell ref="J51:J58"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="G62:G66"/>
-    <mergeCell ref="H62:H66"/>
-    <mergeCell ref="I62:I66"/>
-    <mergeCell ref="K62:K66"/>
-    <mergeCell ref="J62:J66"/>
-    <mergeCell ref="K46:K50"/>
-    <mergeCell ref="H51:H58"/>
-    <mergeCell ref="I51:I58"/>
-    <mergeCell ref="K51:K58"/>
-    <mergeCell ref="G31:G37"/>
-    <mergeCell ref="H31:H37"/>
-    <mergeCell ref="I31:I37"/>
-    <mergeCell ref="K31:K37"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="K2:K10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="H2:H10"/>
-    <mergeCell ref="I2:I10"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="A26:A42"/>
     <mergeCell ref="L62:L66"/>
     <mergeCell ref="A67:A69"/>
     <mergeCell ref="B43:B44"/>
@@ -3578,6 +3450,77 @@
     <mergeCell ref="G46:G50"/>
     <mergeCell ref="H46:H50"/>
     <mergeCell ref="I46:I50"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="A26:A42"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="H2:H10"/>
+    <mergeCell ref="I2:I10"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="K2:K10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="K46:K50"/>
+    <mergeCell ref="H51:H58"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="K51:K58"/>
+    <mergeCell ref="G31:G37"/>
+    <mergeCell ref="H31:H37"/>
+    <mergeCell ref="I31:I37"/>
+    <mergeCell ref="K31:K37"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="G62:G66"/>
+    <mergeCell ref="H62:H66"/>
+    <mergeCell ref="I62:I66"/>
+    <mergeCell ref="K62:K66"/>
+    <mergeCell ref="J62:J66"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="G51:G58"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="J2:J10"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="J31:J37"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J46:J50"/>
+    <mergeCell ref="J51:J58"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Web平台开发计划.xlsx
+++ b/doc/Web平台开发计划.xlsx
@@ -1176,7 +1176,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1192,6 +1192,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1260,7 +1266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1310,7 +1316,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1319,19 +1328,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1345,9 +1363,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1645,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1703,10 +1718,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="27">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -1721,26 +1736,26 @@
       <c r="F2" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="22">
         <v>44156</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="22">
         <v>44161</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="K2" s="23">
-        <v>0.8</v>
+      <c r="K2" s="26">
+        <v>1</v>
       </c>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:12" ht="27">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="8" t="s">
         <v>14</v>
       </c>
@@ -1753,16 +1768,16 @@
       <c r="F3" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="27"/>
       <c r="L3" s="11"/>
     </row>
     <row r="4" spans="1:12" ht="27">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="8" t="s">
         <v>15</v>
       </c>
@@ -1775,16 +1790,16 @@
       <c r="F4" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" ht="40.5">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
@@ -1797,16 +1812,16 @@
       <c r="F5" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="27"/>
       <c r="L5" s="11"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
@@ -1817,16 +1832,16 @@
       <c r="F6" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="13"/>
     </row>
     <row r="7" spans="1:12" ht="40.5">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="8" t="s">
         <v>23</v>
       </c>
@@ -1839,16 +1854,16 @@
       <c r="F7" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="27"/>
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12" ht="27">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
@@ -1861,16 +1876,16 @@
       <c r="F8" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="27"/>
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="8" t="s">
         <v>27</v>
       </c>
@@ -1879,16 +1894,16 @@
       <c r="F9" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="11"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="8" t="s">
         <v>28</v>
       </c>
@@ -1901,18 +1916,18 @@
       <c r="F10" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="28"/>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1925,16 +1940,16 @@
       <c r="F11" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="22">
         <v>44162</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="22">
         <v>44164</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="18" t="s">
         <v>165</v>
       </c>
       <c r="K11" s="23">
@@ -1943,8 +1958,8 @@
       <c r="L11" s="11"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="8" t="s">
         <v>35</v>
       </c>
@@ -1957,16 +1972,16 @@
       <c r="F12" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="8" t="s">
         <v>36</v>
       </c>
@@ -1979,16 +1994,16 @@
       <c r="F13" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="8" t="s">
         <v>38</v>
       </c>
@@ -2001,16 +2016,16 @@
       <c r="F14" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
       <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="10" t="s">
@@ -2025,26 +2040,26 @@
       <c r="F15" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="22">
         <v>44165</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="22">
         <v>44168</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="21" t="s">
         <v>163</v>
       </c>
       <c r="K15" s="23">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:12" ht="27">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="8" t="s">
         <v>43</v>
       </c>
@@ -2057,16 +2072,16 @@
       <c r="F16" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
       <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" ht="27">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
       <c r="C17" s="8" t="s">
         <v>45</v>
       </c>
@@ -2079,21 +2094,21 @@
       <c r="F17" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" ht="67.5">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="29" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -2105,29 +2120,29 @@
       <c r="F18" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="22">
         <v>44169</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="22">
         <v>44174</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="18" t="s">
         <v>165</v>
       </c>
       <c r="K18" s="23">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L18" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="8" t="s">
         <v>161</v>
       </c>
@@ -2135,17 +2150,17 @@
       <c r="F19" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="24"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="25"/>
       <c r="L19" s="14"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="8" t="s">
         <v>162</v>
       </c>
@@ -2153,17 +2168,17 @@
       <c r="F20" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="24"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="25"/>
       <c r="L20" s="14"/>
     </row>
     <row r="21" spans="1:12" ht="27.75">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="8" t="s">
         <v>50</v>
       </c>
@@ -2173,18 +2188,18 @@
       <c r="F21" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
       <c r="L21" s="14" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29" t="s">
         <v>54</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -2199,24 +2214,26 @@
       <c r="F22" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="22">
         <v>44175</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="22">
         <v>44178</v>
       </c>
-      <c r="J22" s="20" t="s">
+      <c r="J22" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="K22" s="17"/>
+      <c r="K22" s="23">
+        <v>0.5</v>
+      </c>
       <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="10" t="s">
         <v>57</v>
       </c>
@@ -2229,16 +2246,16 @@
       <c r="F23" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
       <c r="L23" s="11"/>
     </row>
     <row r="24" spans="1:12" ht="27">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="8" t="s">
         <v>59</v>
       </c>
@@ -2251,18 +2268,18 @@
       <c r="F24" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
       <c r="L24" s="13" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="8" t="s">
         <v>60</v>
       </c>
@@ -2275,18 +2292,18 @@
       <c r="F25" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
       <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" ht="27">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="29" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -2301,16 +2318,16 @@
       <c r="F26" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="22">
         <v>44158</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="22">
         <v>44161</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="18" t="s">
         <v>170</v>
       </c>
       <c r="K26" s="23">
@@ -2319,8 +2336,8 @@
       <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
       <c r="C27" s="8" t="s">
         <v>66</v>
       </c>
@@ -2333,16 +2350,16 @@
       <c r="F27" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
       <c r="L27" s="11"/>
     </row>
     <row r="28" spans="1:12" ht="27">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
       <c r="C28" s="8" t="s">
         <v>68</v>
       </c>
@@ -2355,15 +2372,15 @@
       <c r="F28" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="25"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="8" t="s">
         <v>70</v>
       </c>
@@ -2387,13 +2404,13 @@
       <c r="J29" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K29" s="17">
         <v>0.8</v>
       </c>
       <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="25"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="8" t="s">
         <v>71</v>
       </c>
@@ -2417,14 +2434,14 @@
       <c r="J30" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="K30" s="29">
+      <c r="K30" s="17">
         <v>0.8</v>
       </c>
       <c r="L30" s="11"/>
     </row>
     <row r="31" spans="1:12" ht="27">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25" t="s">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -2439,24 +2456,24 @@
       <c r="F31" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G31" s="17" t="s">
+      <c r="G31" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="22">
         <v>44167</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="22">
         <v>44171</v>
       </c>
-      <c r="J31" s="20" t="s">
+      <c r="J31" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="K31" s="17"/>
+      <c r="K31" s="21"/>
       <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="29"/>
       <c r="C32" s="8" t="s">
         <v>74</v>
       </c>
@@ -2469,16 +2486,16 @@
       <c r="F32" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
       <c r="L32" s="11"/>
     </row>
     <row r="33" spans="1:12" ht="27">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="29"/>
       <c r="C33" s="8" t="s">
         <v>77</v>
       </c>
@@ -2491,16 +2508,16 @@
       <c r="F33" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
       <c r="L33" s="13"/>
     </row>
     <row r="34" spans="1:12" ht="40.5">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
       <c r="C34" s="8" t="s">
         <v>79</v>
       </c>
@@ -2513,16 +2530,16 @@
       <c r="F34" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
       <c r="L34" s="11"/>
     </row>
     <row r="35" spans="1:12">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="29"/>
       <c r="C35" s="8" t="s">
         <v>59</v>
       </c>
@@ -2535,16 +2552,16 @@
       <c r="F35" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
       <c r="L35" s="11"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="29"/>
       <c r="C36" s="8" t="s">
         <v>82</v>
       </c>
@@ -2557,16 +2574,16 @@
       <c r="F36" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
       <c r="L36" s="11"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="8" t="s">
         <v>84</v>
       </c>
@@ -2579,16 +2596,16 @@
       <c r="F37" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
       <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29" t="s">
         <v>86</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -2603,24 +2620,24 @@
       <c r="F38" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G38" s="17" t="s">
+      <c r="G38" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="H38" s="21">
+      <c r="H38" s="22">
         <v>44172</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="22">
         <v>44177</v>
       </c>
-      <c r="J38" s="20" t="s">
+      <c r="J38" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="K38" s="17"/>
+      <c r="K38" s="21"/>
       <c r="L38" s="11"/>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
       <c r="C39" s="8" t="s">
         <v>89</v>
       </c>
@@ -2633,16 +2650,16 @@
       <c r="F39" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
       <c r="L39" s="11"/>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
       <c r="C40" s="8" t="s">
         <v>59</v>
       </c>
@@ -2655,16 +2672,16 @@
       <c r="F40" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
       <c r="L40" s="11"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
       <c r="C41" s="8" t="s">
         <v>79</v>
       </c>
@@ -2677,16 +2694,16 @@
       <c r="F41" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
       <c r="L41" s="11"/>
     </row>
     <row r="42" spans="1:12" ht="27">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="8" t="s">
         <v>93</v>
       </c>
@@ -2699,18 +2716,18 @@
       <c r="F42" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
       <c r="L42" s="11"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="29" t="s">
         <v>96</v>
       </c>
       <c r="C43" s="8" t="s">
@@ -2725,24 +2742,24 @@
       <c r="F43" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G43" s="17" t="s">
+      <c r="G43" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="H43" s="21">
+      <c r="H43" s="22">
         <v>44192</v>
       </c>
-      <c r="I43" s="21">
+      <c r="I43" s="22">
         <v>44194</v>
       </c>
-      <c r="J43" s="20" t="s">
+      <c r="J43" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="K43" s="17"/>
+      <c r="K43" s="21"/>
       <c r="L43" s="11"/>
     </row>
     <row r="44" spans="1:12" ht="40.5">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
       <c r="C44" s="8" t="s">
         <v>98</v>
       </c>
@@ -2753,15 +2770,15 @@
       <c r="F44" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
       <c r="L44" s="11"/>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="25"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="8" t="s">
         <v>100</v>
       </c>
@@ -2791,10 +2808,10 @@
       <c r="L45" s="11"/>
     </row>
     <row r="46" spans="1:12" ht="27">
-      <c r="A46" s="25" t="s">
+      <c r="A46" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="29" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -2809,24 +2826,24 @@
       <c r="F46" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G46" s="17" t="s">
+      <c r="G46" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="22">
         <v>44179</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="22">
         <v>44184</v>
       </c>
-      <c r="J46" s="20" t="s">
+      <c r="J46" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="K46" s="17"/>
+      <c r="K46" s="21"/>
       <c r="L46" s="11"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
       <c r="C47" s="8" t="s">
         <v>104</v>
       </c>
@@ -2837,16 +2854,16 @@
       <c r="F47" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
       <c r="L47" s="11"/>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
       <c r="C48" s="8" t="s">
         <v>79</v>
       </c>
@@ -2859,16 +2876,16 @@
       <c r="F48" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
       <c r="L48" s="11"/>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="29"/>
       <c r="C49" s="8" t="s">
         <v>106</v>
       </c>
@@ -2881,16 +2898,16 @@
       <c r="F49" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
       <c r="L49" s="11"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="29"/>
       <c r="C50" s="8" t="s">
         <v>108</v>
       </c>
@@ -2903,16 +2920,16 @@
       <c r="F50" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="19"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
       <c r="L50" s="11"/>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25" t="s">
+      <c r="A51" s="29"/>
+      <c r="B51" s="29" t="s">
         <v>110</v>
       </c>
       <c r="C51" s="8" t="s">
@@ -2927,24 +2944,24 @@
       <c r="F51" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G51" s="17" t="s">
+      <c r="G51" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="H51" s="21">
+      <c r="H51" s="22">
         <v>44185</v>
       </c>
-      <c r="I51" s="21">
+      <c r="I51" s="22">
         <v>44190</v>
       </c>
-      <c r="J51" s="20" t="s">
+      <c r="J51" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="K51" s="17"/>
+      <c r="K51" s="21"/>
       <c r="L51" s="11"/>
     </row>
     <row r="52" spans="1:12" ht="27">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="29"/>
       <c r="C52" s="8" t="s">
         <v>113</v>
       </c>
@@ -2957,16 +2974,16 @@
       <c r="F52" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
+      <c r="G52" s="19"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
+      <c r="K52" s="19"/>
       <c r="L52" s="11"/>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="29"/>
       <c r="C53" s="8" t="s">
         <v>115</v>
       </c>
@@ -2979,16 +2996,16 @@
       <c r="F53" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
       <c r="L53" s="11"/>
     </row>
     <row r="54" spans="1:12">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
       <c r="C54" s="10" t="s">
         <v>118</v>
       </c>
@@ -3001,16 +3018,16 @@
       <c r="F54" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="19"/>
       <c r="L54" s="11"/>
     </row>
     <row r="55" spans="1:12">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
       <c r="C55" s="8" t="s">
         <v>120</v>
       </c>
@@ -3023,16 +3040,16 @@
       <c r="F55" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
+      <c r="G55" s="19"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19"/>
       <c r="L55" s="11"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
       <c r="C56" s="10" t="s">
         <v>122</v>
       </c>
@@ -3045,16 +3062,16 @@
       <c r="F56" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19"/>
       <c r="L56" s="11"/>
     </row>
     <row r="57" spans="1:12">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="29"/>
       <c r="C57" s="10" t="s">
         <v>124</v>
       </c>
@@ -3067,16 +3084,16 @@
       <c r="F57" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
       <c r="L57" s="11"/>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="29"/>
       <c r="C58" s="10" t="s">
         <v>125</v>
       </c>
@@ -3089,16 +3106,16 @@
       <c r="F58" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
       <c r="L58" s="11"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25" t="s">
+      <c r="A59" s="29"/>
+      <c r="B59" s="29" t="s">
         <v>126</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -3111,24 +3128,24 @@
       <c r="F59" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G59" s="17" t="s">
+      <c r="G59" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="H59" s="21">
+      <c r="H59" s="22">
         <v>44191</v>
       </c>
-      <c r="I59" s="21">
+      <c r="I59" s="22">
         <v>44192</v>
       </c>
-      <c r="J59" s="20" t="s">
+      <c r="J59" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="K59" s="17"/>
+      <c r="K59" s="21"/>
       <c r="L59" s="11"/>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="29"/>
       <c r="C60" s="8" t="s">
         <v>127</v>
       </c>
@@ -3139,15 +3156,15 @@
       <c r="F60" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="19"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="20"/>
       <c r="L60" s="11"/>
     </row>
     <row r="61" spans="1:12" ht="27">
-      <c r="A61" s="25"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="8" t="s">
         <v>129</v>
       </c>
@@ -3179,8 +3196,8 @@
       <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25" t="s">
+      <c r="A62" s="29"/>
+      <c r="B62" s="29" t="s">
         <v>131</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -3195,26 +3212,26 @@
       <c r="F62" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G62" s="17" t="s">
+      <c r="G62" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="H62" s="21">
+      <c r="H62" s="22">
         <v>44186</v>
       </c>
-      <c r="I62" s="21">
+      <c r="I62" s="22">
         <v>44191</v>
       </c>
-      <c r="J62" s="17" t="s">
+      <c r="J62" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="K62" s="17"/>
-      <c r="L62" s="26" t="s">
+      <c r="K62" s="21"/>
+      <c r="L62" s="30" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="27.75">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="29"/>
       <c r="C63" s="8" t="s">
         <v>134</v>
       </c>
@@ -3227,16 +3244,16 @@
       <c r="F63" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="27"/>
+      <c r="G63" s="19"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="31"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="8" t="s">
         <v>137</v>
       </c>
@@ -3249,16 +3266,16 @@
       <c r="F64" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="27"/>
+      <c r="G64" s="19"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="31"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
+      <c r="A65" s="29"/>
+      <c r="B65" s="29"/>
       <c r="C65" s="8" t="s">
         <v>139</v>
       </c>
@@ -3271,16 +3288,16 @@
       <c r="F65" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="27"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="31"/>
     </row>
     <row r="66" spans="1:12" ht="27.75">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
+      <c r="A66" s="29"/>
+      <c r="B66" s="29"/>
       <c r="C66" s="8" t="s">
         <v>141</v>
       </c>
@@ -3293,15 +3310,15 @@
       <c r="F66" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="28"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="32"/>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="29" t="s">
         <v>143</v>
       </c>
       <c r="B67" s="8" t="s">
@@ -3335,7 +3352,7 @@
       <c r="L67" s="11"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="25"/>
+      <c r="A68" s="29"/>
       <c r="B68" s="8" t="s">
         <v>145</v>
       </c>
@@ -3367,7 +3384,7 @@
       <c r="L68" s="11"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="25"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="8" t="s">
         <v>147</v>
       </c>
@@ -3469,6 +3486,8 @@
     <mergeCell ref="G15:G17"/>
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="I15:I17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G11:G14"/>
     <mergeCell ref="K15:K17"/>
     <mergeCell ref="H18:H21"/>
     <mergeCell ref="I18:I21"/>
@@ -3477,12 +3496,17 @@
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="I11:I14"/>
     <mergeCell ref="K11:K14"/>
-    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="J2:J10"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J18:J21"/>
     <mergeCell ref="K22:K25"/>
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="H26:H28"/>
     <mergeCell ref="I26:I28"/>
     <mergeCell ref="K26:K28"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="J26:J28"/>
     <mergeCell ref="K46:K50"/>
     <mergeCell ref="H51:H58"/>
     <mergeCell ref="I51:I58"/>
@@ -3495,32 +3519,25 @@
     <mergeCell ref="H38:H42"/>
     <mergeCell ref="I38:I42"/>
     <mergeCell ref="K38:K42"/>
+    <mergeCell ref="G51:G58"/>
+    <mergeCell ref="J31:J37"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K59:K60"/>
     <mergeCell ref="G62:G66"/>
     <mergeCell ref="H62:H66"/>
     <mergeCell ref="I62:I66"/>
     <mergeCell ref="K62:K66"/>
     <mergeCell ref="J62:J66"/>
+    <mergeCell ref="J46:J50"/>
+    <mergeCell ref="J51:J58"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
     <mergeCell ref="J59:J60"/>
     <mergeCell ref="G59:G60"/>
     <mergeCell ref="H59:H60"/>
     <mergeCell ref="I59:I60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="G51:G58"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="J2:J10"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="J31:J37"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J46:J50"/>
-    <mergeCell ref="J51:J58"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="I22:I25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Web平台开发计划.xlsx
+++ b/doc/Web平台开发计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="176">
   <si>
     <t>页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
   </si>
   <si>
     <t>完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1125,6 +1121,14 @@
   </si>
   <si>
     <t>是否需要处理地图放大和缩小: 简单处理，无须合并点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1176,7 +1180,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1198,6 +1202,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,7 +1282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1322,18 +1338,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1352,17 +1386,41 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1658,10 +1716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L62" sqref="L62:L66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1675,11 +1733,13 @@
     <col min="7" max="7" width="9" style="2"/>
     <col min="8" max="8" width="12.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.125" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="29.375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="11.75" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.75" style="2" customWidth="1"/>
+    <col min="13" max="13" width="29.375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1696,704 +1756,746 @@
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="27">
-      <c r="A2" s="29" t="s">
+    </row>
+    <row r="2" spans="1:13" ht="27">
+      <c r="A2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="27">
+        <v>44156</v>
+      </c>
+      <c r="I2" s="27">
+        <v>44161</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="K2" s="32">
+        <v>1</v>
+      </c>
+      <c r="L2" s="32">
+        <v>1</v>
+      </c>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" ht="27">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="22">
-        <v>44156</v>
-      </c>
-      <c r="I2" s="22">
-        <v>44161</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="K2" s="26">
-        <v>1</v>
-      </c>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" ht="27">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" ht="27">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" ht="27">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" ht="40.5">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" ht="40.5">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" ht="40.5">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+        <v>149</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="13"/>
+    </row>
+    <row r="7" spans="1:13" ht="40.5">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="14"/>
+    </row>
+    <row r="8" spans="1:13" ht="27">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" ht="27">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="14"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="12"/>
       <c r="F9" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+        <v>149</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="F10" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="13"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="13"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>32</v>
-      </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" s="22">
+        <v>149</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="27">
         <v>44162</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="27">
         <v>44164</v>
       </c>
-      <c r="J11" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="K11" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="L11" s="11"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
+      <c r="J11" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="L11" s="29">
+        <v>0</v>
+      </c>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="11"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="F13" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="24"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="11"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="D15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="F15" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="27">
+        <v>44165</v>
+      </c>
+      <c r="I15" s="27">
+        <v>44168</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" s="32">
+        <v>1</v>
+      </c>
+      <c r="L15" s="29">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11"/>
+    </row>
+    <row r="16" spans="1:13" ht="27">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" s="21" t="s">
+      <c r="D16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="11"/>
+    </row>
+    <row r="17" spans="1:13" ht="27">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="11"/>
+    </row>
+    <row r="18" spans="1:13" ht="67.5">
+      <c r="A18" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="H15" s="22">
-        <v>44165</v>
-      </c>
-      <c r="I15" s="22">
-        <v>44168</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="K15" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:12" ht="27">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="1:12" ht="27">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" ht="67.5">
-      <c r="A18" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="H18" s="22">
+      <c r="H18" s="27">
         <v>44169</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="27">
         <v>44174</v>
       </c>
-      <c r="J18" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="K18" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="J18" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="K18" s="32">
+        <v>1</v>
+      </c>
+      <c r="L18" s="29">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="14"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+        <v>149</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="14"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="14"/>
-    </row>
-    <row r="21" spans="1:12" ht="27.75">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+        <v>149</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="14"/>
+    </row>
+    <row r="21" spans="1:13" ht="27.75">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" s="27">
+        <v>44175</v>
+      </c>
+      <c r="I22" s="27">
+        <v>44178</v>
+      </c>
+      <c r="J22" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="K22" s="32">
+        <v>1</v>
+      </c>
+      <c r="L22" s="29">
+        <v>0</v>
+      </c>
+      <c r="M22" s="11"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="H22" s="22">
-        <v>44175</v>
-      </c>
-      <c r="I22" s="22">
-        <v>44178</v>
-      </c>
-      <c r="J22" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="K22" s="23">
-        <v>0.5</v>
-      </c>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="10" t="s">
+      <c r="D23" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="9" t="s">
+      <c r="F23" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="11"/>
+    </row>
+    <row r="24" spans="1:13" ht="27">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="1:12" ht="27">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="D25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="9" t="s">
+      <c r="F25" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="13"/>
+    </row>
+    <row r="26" spans="1:13" ht="27">
+      <c r="A26" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="13"/>
-    </row>
-    <row r="26" spans="1:12" ht="27">
-      <c r="A26" s="29" t="s">
+      <c r="B26" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="C26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="9" t="s">
+      <c r="F26" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="27">
+        <v>44158</v>
+      </c>
+      <c r="I26" s="27">
+        <v>44161</v>
+      </c>
+      <c r="J26" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="32">
+        <v>1</v>
+      </c>
+      <c r="L26" s="29">
+        <v>0</v>
+      </c>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="24"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H26" s="22">
-        <v>44158</v>
-      </c>
-      <c r="I26" s="22">
-        <v>44161</v>
-      </c>
-      <c r="J26" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="K26" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="9" t="s">
+      <c r="F27" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="11"/>
+    </row>
+    <row r="28" spans="1:13" ht="27">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="1:12" ht="27">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="8" t="s">
+      <c r="D28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="11"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="24"/>
+      <c r="B29" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="11"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="29"/>
-      <c r="B29" s="8" t="s">
-        <v>70</v>
-      </c>
       <c r="C29" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="12"/>
       <c r="F29" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H29" s="16">
         <v>44162</v>
@@ -2402,28 +2504,31 @@
         <v>44163</v>
       </c>
       <c r="J29" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="K29" s="17">
+        <v>168</v>
+      </c>
+      <c r="K29" s="40">
+        <v>1</v>
+      </c>
+      <c r="L29" s="17">
         <v>0.8</v>
       </c>
-      <c r="L29" s="11"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="29"/>
+      <c r="M29" s="11"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="24"/>
       <c r="B30" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="12"/>
       <c r="F30" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H30" s="16">
         <v>44164</v>
@@ -2432,368 +2537,389 @@
         <v>44166</v>
       </c>
       <c r="J30" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="K30" s="40">
+        <v>1</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0.8</v>
+      </c>
+      <c r="M30" s="11"/>
+    </row>
+    <row r="31" spans="1:13" ht="27">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="27">
+        <v>44167</v>
+      </c>
+      <c r="I31" s="27">
+        <v>44171</v>
+      </c>
+      <c r="J31" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="K31" s="41">
+        <v>1</v>
+      </c>
+      <c r="L31" s="25"/>
+      <c r="M31" s="11"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="11"/>
+    </row>
+    <row r="33" spans="1:13" ht="27">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="13"/>
+    </row>
+    <row r="34" spans="1:13" ht="40.5">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="11"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="11"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="24"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="24"/>
+      <c r="B38" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="H38" s="27">
+        <v>44172</v>
+      </c>
+      <c r="I38" s="27">
+        <v>44177</v>
+      </c>
+      <c r="J38" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="K38" s="41">
+        <v>1</v>
+      </c>
+      <c r="L38" s="25"/>
+      <c r="M38" s="11"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="24"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="11"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="24"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G40" s="28"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="24"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="11"/>
+    </row>
+    <row r="42" spans="1:13" ht="27">
+      <c r="A42" s="24"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="11"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="H43" s="27">
+        <v>44192</v>
+      </c>
+      <c r="I43" s="27">
+        <v>44194</v>
+      </c>
+      <c r="J43" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="K30" s="17">
-        <v>0.8</v>
-      </c>
-      <c r="L30" s="11"/>
-    </row>
-    <row r="31" spans="1:12" ht="27">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="H31" s="22">
-        <v>44167</v>
-      </c>
-      <c r="I31" s="22">
-        <v>44171</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="K31" s="21"/>
-      <c r="L31" s="11"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="11"/>
-    </row>
-    <row r="33" spans="1:12" ht="27">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" spans="1:12" ht="40.5">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="11"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="11"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G38" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="H38" s="22">
-        <v>44172</v>
-      </c>
-      <c r="I38" s="22">
-        <v>44177</v>
-      </c>
-      <c r="J38" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="K38" s="21"/>
-      <c r="L38" s="11"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="11"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="1:12" ht="27">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="11"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="9" t="s">
+      <c r="K43" s="18"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="11"/>
+    </row>
+    <row r="44" spans="1:13" ht="40.5">
+      <c r="A44" s="24"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G43" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="H43" s="22">
-        <v>44192</v>
-      </c>
-      <c r="I43" s="22">
-        <v>44194</v>
-      </c>
-      <c r="J43" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="K43" s="21"/>
-      <c r="L43" s="11"/>
-    </row>
-    <row r="44" spans="1:12" ht="40.5">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="8" t="s">
-        <v>98</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="11"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="24"/>
+      <c r="B45" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="11"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="29"/>
-      <c r="B45" s="8" t="s">
-        <v>100</v>
-      </c>
       <c r="C45" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H45" s="16">
         <v>44195</v>
@@ -2802,386 +2928,408 @@
         <v>44198</v>
       </c>
       <c r="J45" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="11"/>
-    </row>
-    <row r="46" spans="1:12" ht="27">
-      <c r="A46" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="K45" s="20"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="11"/>
+    </row>
+    <row r="46" spans="1:13" ht="27">
+      <c r="A46" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="8" t="s">
+      <c r="D46" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="9" t="s">
+      <c r="F46" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="H46" s="27">
+        <v>44179</v>
+      </c>
+      <c r="I46" s="27">
+        <v>44184</v>
+      </c>
+      <c r="J46" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="K46" s="41">
+        <v>1</v>
+      </c>
+      <c r="L46" s="25"/>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="24"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="8" t="s">
         <v>103</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="H46" s="22">
-        <v>44179</v>
-      </c>
-      <c r="I46" s="22">
-        <v>44184</v>
-      </c>
-      <c r="J46" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="K46" s="21"/>
-      <c r="L46" s="11"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="11"/>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
+        <v>151</v>
+      </c>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="24"/>
+      <c r="B48" s="24"/>
       <c r="C48" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="11"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="11"/>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="8" t="s">
+      <c r="D49" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="F49" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="11"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="24"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="11"/>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="8" t="s">
+      <c r="D50" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="9" t="s">
+      <c r="F50" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="11"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="24"/>
+      <c r="B51" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="11"/>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29" t="s">
+      <c r="C51" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E51" s="9" t="s">
+      <c r="F51" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="H51" s="27">
+        <v>44185</v>
+      </c>
+      <c r="I51" s="27">
+        <v>44190</v>
+      </c>
+      <c r="J51" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="K51" s="41">
+        <v>1</v>
+      </c>
+      <c r="L51" s="25"/>
+      <c r="M51" s="11"/>
+    </row>
+    <row r="52" spans="1:13" ht="27">
+      <c r="A52" s="24"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G51" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="H51" s="22">
-        <v>44185</v>
-      </c>
-      <c r="I51" s="22">
-        <v>44190</v>
-      </c>
-      <c r="J51" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="K51" s="21"/>
-      <c r="L51" s="11"/>
-    </row>
-    <row r="52" spans="1:12" ht="27">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="9" t="s">
+      <c r="F52" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="11"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="24"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="11"/>
-    </row>
-    <row r="53" spans="1:12">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="8" t="s">
+      <c r="D53" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="F53" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="11"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E53" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="11"/>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="10" t="s">
+      <c r="D54" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D54" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="9" t="s">
+      <c r="F54" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="11"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="24"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F54" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="11"/>
-    </row>
-    <row r="55" spans="1:12">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="8" t="s">
+      <c r="D55" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="9" t="s">
+      <c r="F55" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="11"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="11"/>
-    </row>
-    <row r="56" spans="1:12">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="10" t="s">
+      <c r="D56" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D56" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="9" t="s">
+      <c r="F56" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="11"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="24"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="F56" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="11"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="10" t="s">
+      <c r="D57" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="11"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="24"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="11"/>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="10" t="s">
+      <c r="D58" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="11"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="24"/>
+      <c r="B59" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="D58" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="11"/>
-    </row>
-    <row r="59" spans="1:12">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29" t="s">
-        <v>126</v>
-      </c>
       <c r="C59" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G59" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="H59" s="22">
+        <v>151</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H59" s="27">
         <v>44191</v>
       </c>
-      <c r="I59" s="22">
+      <c r="I59" s="27">
         <v>44192</v>
       </c>
-      <c r="J59" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="K59" s="21"/>
-      <c r="L59" s="11"/>
-    </row>
-    <row r="60" spans="1:12">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
+      <c r="J59" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="K59" s="41">
+        <v>1</v>
+      </c>
+      <c r="L59" s="25"/>
+      <c r="M59" s="11"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="24"/>
+      <c r="B60" s="24"/>
       <c r="C60" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="11"/>
+    </row>
+    <row r="61" spans="1:13" ht="27">
+      <c r="A61" s="24"/>
+      <c r="B61" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F60" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="11"/>
-    </row>
-    <row r="61" spans="1:12" ht="27">
-      <c r="A61" s="29"/>
-      <c r="B61" s="8" t="s">
+      <c r="C61" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>130</v>
-      </c>
       <c r="F61" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H61" s="16">
         <v>44185</v>
@@ -3190,154 +3338,162 @@
         <v>44185</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K61" s="10"/>
-      <c r="L61" s="11"/>
-    </row>
-    <row r="62" spans="1:12">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="K61" s="40">
+        <v>1</v>
+      </c>
+      <c r="L61" s="10"/>
+      <c r="M61" s="11"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="24"/>
+      <c r="B62" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="F62" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="H62" s="27">
+        <v>44186</v>
+      </c>
+      <c r="I62" s="27">
+        <v>44191</v>
+      </c>
+      <c r="J62" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="K62" s="44"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="27.75">
+      <c r="A63" s="24"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G62" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="H62" s="22">
-        <v>44186</v>
-      </c>
-      <c r="I62" s="22">
-        <v>44191</v>
-      </c>
-      <c r="J62" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="K62" s="21"/>
-      <c r="L62" s="30" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="27.75">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="8" t="s">
+      <c r="D63" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="F63" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="22"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="24"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="D64" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="22"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="24"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="22"/>
+    </row>
+    <row r="66" spans="1:13" ht="27.75">
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="F63" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="31"/>
-    </row>
-    <row r="64" spans="1:12">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="31"/>
-    </row>
-    <row r="65" spans="1:12">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="F65" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="31"/>
-    </row>
-    <row r="66" spans="1:12" ht="27.75">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="8" t="s">
+      <c r="E66" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D66" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E66" s="9" t="s">
+      <c r="F66" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="23"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="F66" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="32"/>
-    </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="29" t="s">
+      <c r="B67" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>144</v>
-      </c>
       <c r="C67" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H67" s="16">
         <v>44178</v>
@@ -3346,30 +3502,31 @@
         <v>44178</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K67" s="10"/>
-      <c r="L67" s="11"/>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="29"/>
+        <v>169</v>
+      </c>
+      <c r="K67" s="20"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="11"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="24"/>
       <c r="B68" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E68" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C68" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="F68" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H68" s="16">
         <v>44179</v>
@@ -3378,30 +3535,31 @@
         <v>44180</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K68" s="10"/>
-      <c r="L68" s="11"/>
-    </row>
-    <row r="69" spans="1:12">
-      <c r="A69" s="29"/>
+        <v>169</v>
+      </c>
+      <c r="K68" s="20"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="11"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="24"/>
       <c r="B69" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H69" s="16">
         <v>44181</v>
@@ -3410,32 +3568,33 @@
         <v>44182</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K69" s="10"/>
-      <c r="L69" s="11"/>
-    </row>
-    <row r="70" spans="1:12">
+        <v>169</v>
+      </c>
+      <c r="K69" s="20"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="11"/>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="C70" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H70" s="16">
         <v>44183</v>
@@ -3444,14 +3603,98 @@
         <v>44184</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="K70" s="10"/>
-      <c r="L70" s="11"/>
+        <v>169</v>
+      </c>
+      <c r="K70" s="20"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="99">
+    <mergeCell ref="K46:K50"/>
+    <mergeCell ref="K51:K58"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="K62:K66"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="K31:K37"/>
+    <mergeCell ref="K38:K42"/>
+    <mergeCell ref="J46:J50"/>
+    <mergeCell ref="J51:J58"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="G62:G66"/>
+    <mergeCell ref="H62:H66"/>
+    <mergeCell ref="I62:I66"/>
     <mergeCell ref="L62:L66"/>
+    <mergeCell ref="J62:J66"/>
+    <mergeCell ref="L46:L50"/>
+    <mergeCell ref="H51:H58"/>
+    <mergeCell ref="I51:I58"/>
+    <mergeCell ref="L51:L58"/>
+    <mergeCell ref="G31:G37"/>
+    <mergeCell ref="H31:H37"/>
+    <mergeCell ref="I31:I37"/>
+    <mergeCell ref="L31:L37"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="H38:H42"/>
+    <mergeCell ref="I38:I42"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="G51:G58"/>
+    <mergeCell ref="J31:J37"/>
+    <mergeCell ref="J38:J42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="J22:J25"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="L2:L10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="J2:J10"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="K2:K10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="G2:G10"/>
+    <mergeCell ref="H2:H10"/>
+    <mergeCell ref="I2:I10"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="B2:B10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="A26:A42"/>
+    <mergeCell ref="M62:M66"/>
     <mergeCell ref="A67:A69"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="A43:A45"/>
@@ -3463,81 +3706,10 @@
     <mergeCell ref="G43:G44"/>
     <mergeCell ref="H43:H44"/>
     <mergeCell ref="I43:I44"/>
-    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
     <mergeCell ref="G46:G50"/>
     <mergeCell ref="H46:H50"/>
     <mergeCell ref="I46:I50"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="A26:A42"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="B2:B10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A11:A17"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="G2:G10"/>
-    <mergeCell ref="H2:H10"/>
-    <mergeCell ref="I2:I10"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="K2:K10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="J2:J10"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="J15:J17"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="K26:K28"/>
-    <mergeCell ref="J22:J25"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="K46:K50"/>
-    <mergeCell ref="H51:H58"/>
-    <mergeCell ref="I51:I58"/>
-    <mergeCell ref="K51:K58"/>
-    <mergeCell ref="G31:G37"/>
-    <mergeCell ref="H31:H37"/>
-    <mergeCell ref="I31:I37"/>
-    <mergeCell ref="K31:K37"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="H38:H42"/>
-    <mergeCell ref="I38:I42"/>
-    <mergeCell ref="K38:K42"/>
-    <mergeCell ref="G51:G58"/>
-    <mergeCell ref="J31:J37"/>
-    <mergeCell ref="J38:J42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="G62:G66"/>
-    <mergeCell ref="H62:H66"/>
-    <mergeCell ref="I62:I66"/>
-    <mergeCell ref="K62:K66"/>
-    <mergeCell ref="J62:J66"/>
-    <mergeCell ref="J46:J50"/>
-    <mergeCell ref="J51:J58"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="I22:I25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
